--- a/SummerHousing.xlsx
+++ b/SummerHousing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Starkc1.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33025E69-FD92-472D-94B1-F68181D51D78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE5A686-5B62-4BBE-ABEA-C5628DE30A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="34320" windowHeight="17760" xr2:uid="{8ABF1D57-1477-48F9-9D4C-8C209A66163F}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="34320" windowHeight="17760" xr2:uid="{8ABF1D57-1477-48F9-9D4C-8C209A66163F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>Apartment Name</t>
   </si>
@@ -135,19 +135,43 @@
     <t>Woodlands of Arlington Apartments</t>
   </si>
   <si>
-    <t>University of Texas at Arlington</t>
-  </si>
-  <si>
-    <t>The lofts at College Park</t>
-  </si>
-  <si>
-    <t>The Heights on Pecan</t>
-  </si>
-  <si>
-    <t>Timber Brook</t>
-  </si>
-  <si>
-    <t>Centennial Court</t>
+    <t>The Palisades at Bear Creek Apartments</t>
+  </si>
+  <si>
+    <t>The 903 Apartments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arlington </t>
+  </si>
+  <si>
+    <t>Huntington Meadows Apartments</t>
+  </si>
+  <si>
+    <t>The Aria Apartments</t>
+  </si>
+  <si>
+    <t>Element Apartments</t>
+  </si>
+  <si>
+    <t>Wood Creek Apartments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine Apartments </t>
+  </si>
+  <si>
+    <t>The Seasons at Green Oaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunters Point Apartments </t>
+  </si>
+  <si>
+    <t>Stoneleigh Apartments</t>
+  </si>
+  <si>
+    <t>Bear Creek</t>
+  </si>
+  <si>
+    <t>Vine South Apartments</t>
   </si>
 </sst>
 </file>
@@ -155,8 +179,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,10 +233,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EDDAD5-28F0-4311-9E54-CD119C01F12B}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -866,125 +899,189 @@
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8172677666</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8172722791</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C25" s="4">
-        <v>8172722791</v>
+        <v>8172706806</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>36</v>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="4">
-        <v>8172722791</v>
+        <v>8172615597</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>36</v>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="4">
-        <v>8177894764</v>
+        <v>8174624667</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4">
+        <v>8172654142</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6822044380</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8172659484</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8172582300</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8172616227</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="7">
+        <v>8176011061</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4">
+        <v>8175407800</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
     </row>
   </sheetData>

--- a/SummerHousing.xlsx
+++ b/SummerHousing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Starkc1.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Starkc1.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE5A686-5B62-4BBE-ABEA-C5628DE30A10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843AD641-4BF7-DC4A-9A2D-EC6EE2D05219}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="34320" windowHeight="17760" xr2:uid="{8ABF1D57-1477-48F9-9D4C-8C209A66163F}"/>
+    <workbookView xWindow="260" yWindow="180" windowWidth="28040" windowHeight="17820" xr2:uid="{8ABF1D57-1477-48F9-9D4C-8C209A66163F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
       <name val="Roboto Light"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,9 +248,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,6 +255,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,21 +598,21 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,273 +632,273 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>8172412331</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="10">
         <v>2143076652</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
         <v>8177996762</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>8173186151</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="14">
         <v>2144447235</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="14">
         <v>8332144526</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="14">
         <v>8178359301</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>8174383474</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <v>2146463807</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="14">
         <v>8175236615</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="14">
         <v>8173832582</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="14">
         <v>8179525112</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="14">
         <v>8179347397</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="10">
         <v>8173693380</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="10">
         <v>8174382889</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="14">
         <v>8172038915</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="14">
         <v>8172032715</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="14">
         <v>8177953036</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="10">
         <v>8177257442</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -879,7 +912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -893,12 +926,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -912,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -926,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -940,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -954,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -968,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -982,63 +1015,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>8172659484</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>8172582300</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>8172616227</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>8176011061</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -1052,36 +1085,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
     </row>
   </sheetData>
